--- a/CREST syndrome_vs_Achalasia (type 1).xlsx
+++ b/CREST syndrome_vs_Achalasia (type 1).xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="History of Present Illness (the" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Medical and Surgical History, i" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Social History, Health Behavior" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Vitals and Physical Exam" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Test Results (labs, imaging, pr" sheetId="5" state="visible" r:id="rId5"/>
@@ -462,22 +462,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Presence of skin changes such as sclerodactyly or telangiectasia</t>
+          <t>Presence of skin changes such as thickening or tightening</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>These findings are characteristic of CREST syndrome and are not associated with Achalasia (type 1), making them strong indicators for CREST syndrome.</t>
+          <t>Skin changes are characteristic of CREST syndrome, indicating systemic sclerosis involvement, which is not seen in Achalasia (type 1).</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Gradual onset of dysphagia for solids progressing to liquids</t>
+          <t>Gradual onset of dysphagia primarily for solids, progressing to liquids</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>This classic symptom progression is highly characteristic of Achalasia (type 1) and not typical in CREST syndrome.</t>
+          <t>This pattern is typical for Achalasia (type 1), indicating esophageal obstruction, while CREST syndrome may present with more varied gastrointestinal symptoms.</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Raynaud's phenomenon is a common symptom in CREST syndrome, indicating vascular involvement, which is not typical in Achalasia (type 1).</t>
+          <t>Raynaud's phenomenon is a common feature of CREST syndrome, indicating vascular involvement, whereas it is not associated with Achalasia (type 1).</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -499,19 +499,19 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Regurgitation is a common symptom in Achalasia (type 1) due to esophageal obstruction, which is not a feature of CREST syndrome.</t>
+          <t>Regurgitation is a common symptom in Achalasia (type 1) due to esophageal obstruction, which is less common in CREST syndrome.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Gastrointestinal symptoms such as dysphagia occurring alongside skin or vascular symptoms</t>
+          <t>Dysphagia accompanied by other gastrointestinal symptoms like reflux or constipation</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>While both conditions can cause dysphagia, the combination with skin or vascular symptoms strongly suggests CREST syndrome.</t>
+          <t>While dysphagia is present in both conditions, the combination with other gastrointestinal symptoms is more indicative of CREST syndrome due to esophageal motility issues.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -521,51 +521,51 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Chest pain associated with swallowing is more indicative of Achalasia (type 1) than CREST syndrome, which typically does not present with this symptom.</t>
+          <t>Chest pain associated with swallowing is more indicative of Achalasia (type 1) due to esophageal spasms, whereas CREST syndrome typically presents with other systemic symptoms.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Onset of symptoms in middle-aged women</t>
+          <t>Pulmonary hypertension symptoms such as exertional dyspnea</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CREST syndrome is more prevalent in middle-aged women, whereas Achalasia (type 1) does not have a strong gender bias.</t>
+          <t>Pulmonary hypertension is a complication of CREST syndrome, which is not a feature of Achalasia (type 1).</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Symptoms worsening with emotional stress</t>
+          <t>Weight loss due to difficulty eating</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Achalasia (type 1) symptoms can be exacerbated by stress, while CREST syndrome symptoms are more systemic and not typically stress-related.</t>
+          <t>Significant weight loss due to dysphagia is more characteristic of Achalasia (type 1), while in CREST syndrome, weight loss may be due to other systemic issues.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Progressive symptoms over months to years with associated fatigue</t>
+          <t>Calcinosis cutis (calcium deposits in the skin)</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>The gradual progression and systemic symptoms like fatigue are more indicative of CREST syndrome than the more acute presentation of Achalasia (type 1).</t>
+          <t>Calcinosis cutis is a specific finding in CREST syndrome, which does not occur in Achalasia (type 1).</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>No associated skin or vascular symptoms</t>
+          <t>No associated skin or systemic symptoms</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>The absence of skin or vascular symptoms strongly favors Achalasia (type 1) over CREST syndrome, which is characterized by such findings.</t>
+          <t>The absence of skin or systemic symptoms favors Achalasia (type 1), as CREST syndrome typically presents with these features.</t>
         </is>
       </c>
     </row>
@@ -580,14 +580,147 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Supports Dx A</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Rationale Dx A</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Supports Dx B</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Rationale Dx B</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>History of Raynaud's phenomenon</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Raynaud's phenomenon is a common feature of CREST syndrome, indicating vascular involvement, which is not typically associated with Achalasia (type 1).</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>History of progressive dysphagia</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Progressive dysphagia is a classic symptom of Achalasia (type 1) due to esophageal obstruction, which is not a primary feature of CREST syndrome.</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Presence of sclerodactyly</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Sclerodactyly, or thickening and tightening of the skin on the fingers, is a hallmark of CREST syndrome and is not seen in Achalasia (type 1).</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>History of regurgitation of undigested food</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Regurgitation is a common symptom in Achalasia (type 1) due to esophageal stasis, while it is less characteristic of CREST syndrome.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>History of esophageal motility disorders</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>While both conditions can involve esophageal motility, CREST syndrome often presents with a broader spectrum of gastrointestinal dysmotility, including reflux and dysphagia, which can be more severe than in Achalasia (type 1).</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>History of weight loss due to eating difficulties</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Weight loss from difficulty eating is more directly associated with Achalasia (type 1) than with CREST syndrome, where weight loss may be due to other systemic issues.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Use of immunosuppressive medications</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Patients with CREST syndrome may be on immunosuppressive therapy due to associated autoimmune conditions, which is less common in Achalasia (type 1).</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Use of medications for esophageal relaxation (e.g., nitrates, calcium channel blockers)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Patients with Achalasia (type 1) may be treated with these medications to alleviate symptoms, which is not a common treatment approach in CREST syndrome.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>History of pulmonary hypertension</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Pulmonary hypertension can occur in CREST syndrome due to vascular changes, whereas it is not a feature of Achalasia (type 1).</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>History of chest pain related to swallowing</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Chest pain associated with swallowing is a typical symptom of Achalasia (type 1) due to esophageal spasms, which is not a feature of CREST syndrome.</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -646,7 +779,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Dysphagia is a primary symptom of Achalasia (type 1) due to esophageal motility issues, while it is not a defining feature of CREST syndrome.</t>
+          <t>Dysphagia is a primary symptom of Achalasia (type 1) due to esophageal motility failure, while it is not a prominent feature of CREST syndrome.</t>
         </is>
       </c>
     </row>
@@ -663,12 +796,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>History of regurgitation of undigested food</t>
+          <t>Family history of esophageal cancer</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Regurgitation is a common symptom in Achalasia (type 1) due to esophageal obstruction, which is not typically seen in CREST syndrome.</t>
+          <t>A family history of esophageal cancer may suggest a predisposition to Achalasia (type 1), which is associated with an increased risk of esophageal malignancies.</t>
         </is>
       </c>
     </row>
@@ -685,12 +818,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Family history of esophageal cancer</t>
+          <t>History of smoking</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>A family history of esophageal cancer may suggest a predisposition to Achalasia (type 1), which is not associated with CREST syndrome.</t>
+          <t>Smoking is a known risk factor for various esophageal disorders, including Achalasia (type 1), but is not directly linked to CREST syndrome.</t>
         </is>
       </c>
     </row>
@@ -702,39 +835,39 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>While gastrointestinal motility disorders can be present in both conditions, a family history specifically of scleroderma-related motility issues would favor CREST syndrome over Achalasia (type 1).</t>
+          <t>While gastrointestinal motility issues can be present in both conditions, a family history specifically indicating CREST syndrome-related motility disorders would favor CREST over Achalasia (type 1).</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>History of weight loss due to eating difficulties</t>
+          <t>History of gastroesophageal reflux disease (GERD)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Weight loss due to difficulty eating is more characteristic of Achalasia (type 1) as a result of esophageal obstruction, unlike CREST syndrome.</t>
+          <t>GERD is often associated with esophageal motility disorders like Achalasia (type 1), while it is less relevant in the context of CREST syndrome.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>History of pulmonary hypertension</t>
+          <t>Occupational exposure to silica or other environmental toxins</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Pulmonary hypertension can occur in CREST syndrome due to vascular changes, whereas it is not a feature of Achalasia (type 1).</t>
+          <t>Certain environmental exposures have been linked to the development of scleroderma and CREST syndrome, whereas Achalasia (type 1) does not have such associations.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>History of smoking</t>
+          <t>Sedentary lifestyle</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Smoking is a risk factor for esophageal motility disorders and may be more relevant in the context of Achalasia (type 1) than in CREST syndrome.</t>
+          <t>A sedentary lifestyle may contribute to obesity and related esophageal motility issues, which are more characteristic of Achalasia (type 1) than CREST syndrome.</t>
         </is>
       </c>
     </row>
@@ -792,12 +925,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Dysphagia for solids and liquids</t>
+          <t>Dysphagia primarily for solids</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Dysphagia that affects both solids and liquids is a classic symptom of Achalasia (type 1), whereas in CREST syndrome, dysphagia may be more variable.</t>
+          <t>In Achalasia (type 1), patients typically experience dysphagia that is more pronounced for solids, while CREST syndrome may present with a broader range of swallowing difficulties.</t>
         </is>
       </c>
     </row>
@@ -819,7 +952,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Regurgitation is more characteristic of Achalasia (type 1) due to esophageal obstruction, while it is less common in CREST syndrome.</t>
+          <t>Regurgitation is a common symptom in Achalasia (type 1) due to esophageal obstruction, which is not a typical feature of CREST syndrome.</t>
         </is>
       </c>
     </row>
@@ -841,7 +974,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Significant weight loss due to difficulty eating is more commonly associated with Achalasia (type 1) than with CREST syndrome.</t>
+          <t>Significant weight loss due to difficulty eating is more characteristic of Achalasia (type 1) as it leads to severe dysphagia, while weight loss in CREST syndrome is often multifactorial.</t>
         </is>
       </c>
     </row>
@@ -853,17 +986,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>While both conditions can present with dysphagia, the esophageal motility abnormalities in CREST syndrome are often more varied and can include reflux, unlike the specific motility pattern seen in Achalasia (type 1).</t>
+          <t>While both conditions can present with dysphagia, the esophageal motility abnormalities in CREST syndrome are often more varied and include both peristaltic and non-peristaltic movements, unlike the classic obstruction seen in Achalasia (type 1).</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Normal skin findings</t>
+          <t>Chest pain related to esophageal spasms</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>The absence of skin changes such as sclerodactyly or calcinosis cutis supports a diagnosis of Achalasia (type 1), as these findings are indicative of CREST syndrome.</t>
+          <t>Chest pain in Achalasia (type 1) can be due to esophageal spasms, which is less common in CREST syndrome.</t>
         </is>
       </c>
     </row>
@@ -880,12 +1013,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Chest pain related to esophageal spasm</t>
+          <t>Normal skin examination</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Chest pain due to esophageal spasm is more typical in Achalasia (type 1) and less common in CREST syndrome.</t>
+          <t>A normal skin examination would favor Achalasia (type 1) as CREST syndrome typically presents with distinct skin findings.</t>
         </is>
       </c>
     </row>
@@ -970,7 +1103,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Elevated resting LES pressure is a key finding in Achalasia (type 1) and is not a feature of CREST syndrome.</t>
+          <t>Elevated LES pressure is a key finding in Achalasia (type 1) and is not a feature of CREST syndrome.</t>
         </is>
       </c>
     </row>
@@ -992,7 +1125,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Esophageal dilation is a direct result of the obstruction seen in Achalasia (type 1) and is not a feature of CREST syndrome.</t>
+          <t>Esophageal dilation is a direct result of the obstruction seen in Achalasia (type 1) and is not present in CREST syndrome.</t>
         </is>
       </c>
     </row>
@@ -1009,12 +1142,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Normal or mildly elevated serum creatinine</t>
+          <t>Normal or mildly elevated serum creatinine levels</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Normal renal function is more likely in Achalasia (type 1), while CREST syndrome may involve renal complications.</t>
+          <t>Normal renal function tests are more consistent with Achalasia (type 1), while CREST syndrome may show renal involvement.</t>
         </is>
       </c>
     </row>
